--- a/biology/Médecine/Épicondyle_latéral_de_l'humérus/Épicondyle_latéral_de_l'humérus.xlsx
+++ b/biology/Médecine/Épicondyle_latéral_de_l'humérus/Épicondyle_latéral_de_l'humérus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89picondyle_lat%C3%A9ral_de_l%27hum%C3%A9rus</t>
+          <t>Épicondyle_latéral_de_l'humérus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épicondyle latéral de l'humérus (ou épicondyle de l'humérus) est le processus osseux situé à l’extrémité inférieure du bord latéral du corps de l’humérus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89picondyle_lat%C3%A9ral_de_l%27hum%C3%A9rus</t>
+          <t>Épicondyle_latéral_de_l'humérus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épicondyle latéral de l'humérus est une excroissance osseuse rugueuse située au-dessus et en dehors du condyle de l'humérus.
 Il donne insertion aux muscles épicondyliens latéraux et au ligament collatéral radial de l'articulation du coude.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89picondyle_lat%C3%A9ral_de_l%27hum%C3%A9rus</t>
+          <t>Épicondyle_latéral_de_l'humérus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inflammation des tendons des muscles épicondyliens latéraux entraîne une épicondylite latérale. Elle peut être provoquée par la pratique sportive, en particulier le tennis.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89picondyle_lat%C3%A9ral_de_l%27hum%C3%A9rus</t>
+          <t>Épicondyle_latéral_de_l'humérus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les oiseaux, on l'appelle l'épicondyle dorsal de l'humérus.
 </t>
